--- a/user-data/kenya-pop-pc-male/kenya-pop-pc-male.xlsx
+++ b/user-data/kenya-pop-pc-male/kenya-pop-pc-male.xlsx
@@ -349,7 +349,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
